--- a/custom-sim/track_files/Michigan_2021_Endurance.xlsx
+++ b/custom-sim/track_files/Michigan_2021_Endurance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\GitHub\FEBSim\custom sim\track_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qhcbe\Documents\coding\FEB\FEBSim\custom-sim\track_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62092139-8317-487B-99DF-8B6F4F59AC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9E11E6-E648-496B-BBD5-F84FD2F4A8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>Brooklyn</t>
   </si>
   <si>
-    <t>Closed</t>
+    <t>Michigan 2021 End</t>
   </si>
   <si>
-    <t>Michigan 2021 End</t>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C802"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
